--- a/trunk/alert/בסיס נתונים התרעה.xlsx
+++ b/trunk/alert/בסיס נתונים התרעה.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="315" windowWidth="18885" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="315" windowWidth="18885" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="חומה ומגדל" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ביפר!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'חומה ומגדל'!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4555" uniqueCount="1986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4575" uniqueCount="1986">
   <si>
     <t>שם ישוב</t>
   </si>
@@ -6011,7 +6011,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6044,12 +6044,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
   </fonts>
   <fills count="6">
@@ -6061,25 +6066,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6253,11 +6258,11 @@
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 10" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
-    <cellStyle name="Normal 2 3" xfId="3"/>
-    <cellStyle name="Normal 2 4" xfId="4"/>
-    <cellStyle name="Normal 2 5" xfId="7"/>
-    <cellStyle name="Normal 2 6" xfId="5"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 2 3" xfId="4"/>
+    <cellStyle name="Normal 2 4" xfId="5"/>
+    <cellStyle name="Normal 2 5" xfId="6"/>
+    <cellStyle name="Normal 2 6" xfId="7"/>
     <cellStyle name="Normal 2 7" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6266,7 +6271,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6552,8 +6557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1371"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView rightToLeft="1" topLeftCell="A879" workbookViewId="0">
+      <selection activeCell="B894" sqref="B894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -62766,6 +62771,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -62775,8 +62781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56:F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -65245,7 +65251,9 @@
       <c r="E56" s="11" t="s">
         <v>1944</v>
       </c>
-      <c r="F56" s="11"/>
+      <c r="F56" s="11" t="s">
+        <v>1944</v>
+      </c>
       <c r="G56" s="11">
         <v>15</v>
       </c>
@@ -65285,7 +65293,9 @@
       <c r="E57" s="11" t="s">
         <v>1946</v>
       </c>
-      <c r="F57" s="11"/>
+      <c r="F57" s="11" t="s">
+        <v>1946</v>
+      </c>
       <c r="G57" s="11">
         <v>15</v>
       </c>
@@ -65325,7 +65335,9 @@
       <c r="E58" s="11" t="s">
         <v>1948</v>
       </c>
-      <c r="F58" s="11"/>
+      <c r="F58" s="11" t="s">
+        <v>1948</v>
+      </c>
       <c r="G58" s="11">
         <v>15</v>
       </c>
@@ -65365,7 +65377,9 @@
       <c r="E59" s="11" t="s">
         <v>1950</v>
       </c>
-      <c r="F59" s="11"/>
+      <c r="F59" s="11" t="s">
+        <v>1950</v>
+      </c>
       <c r="G59" s="11">
         <v>15</v>
       </c>
@@ -65405,7 +65419,9 @@
       <c r="E60" s="11" t="s">
         <v>1952</v>
       </c>
-      <c r="F60" s="11"/>
+      <c r="F60" s="11" t="s">
+        <v>1952</v>
+      </c>
       <c r="G60" s="11">
         <v>15</v>
       </c>
@@ -65445,7 +65461,9 @@
       <c r="E61" s="11" t="s">
         <v>1954</v>
       </c>
-      <c r="F61" s="11"/>
+      <c r="F61" s="11" t="s">
+        <v>1954</v>
+      </c>
       <c r="G61" s="11">
         <v>15</v>
       </c>
@@ -65485,7 +65503,9 @@
       <c r="E62" s="11" t="s">
         <v>1956</v>
       </c>
-      <c r="F62" s="11"/>
+      <c r="F62" s="11" t="s">
+        <v>1956</v>
+      </c>
       <c r="G62" s="11">
         <v>15</v>
       </c>
@@ -65525,7 +65545,9 @@
       <c r="E63" s="11" t="s">
         <v>1958</v>
       </c>
-      <c r="F63" s="11"/>
+      <c r="F63" s="11" t="s">
+        <v>1958</v>
+      </c>
       <c r="G63" s="11">
         <v>15</v>
       </c>
@@ -65565,7 +65587,9 @@
       <c r="E64" s="11" t="s">
         <v>1960</v>
       </c>
-      <c r="F64" s="11"/>
+      <c r="F64" s="11" t="s">
+        <v>1960</v>
+      </c>
       <c r="G64" s="11">
         <v>15</v>
       </c>
@@ -65605,7 +65629,9 @@
       <c r="E65" s="11" t="s">
         <v>1962</v>
       </c>
-      <c r="F65" s="11"/>
+      <c r="F65" s="11" t="s">
+        <v>1962</v>
+      </c>
       <c r="G65" s="11">
         <v>15</v>
       </c>
@@ -65645,7 +65671,9 @@
       <c r="E66" s="11" t="s">
         <v>1964</v>
       </c>
-      <c r="F66" s="11"/>
+      <c r="F66" s="11" t="s">
+        <v>1964</v>
+      </c>
       <c r="G66" s="11">
         <v>15</v>
       </c>
@@ -65685,7 +65713,9 @@
       <c r="E67" s="11" t="s">
         <v>1966</v>
       </c>
-      <c r="F67" s="11"/>
+      <c r="F67" s="11" t="s">
+        <v>1966</v>
+      </c>
       <c r="G67" s="11">
         <v>15</v>
       </c>
@@ -65725,7 +65755,9 @@
       <c r="E68" s="11" t="s">
         <v>1968</v>
       </c>
-      <c r="F68" s="11"/>
+      <c r="F68" s="11" t="s">
+        <v>1968</v>
+      </c>
       <c r="G68" s="11">
         <v>15</v>
       </c>
@@ -65765,7 +65797,9 @@
       <c r="E69" s="11" t="s">
         <v>1970</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="11" t="s">
+        <v>1970</v>
+      </c>
       <c r="G69" s="11">
         <v>15</v>
       </c>
@@ -65805,7 +65839,9 @@
       <c r="E70" s="11" t="s">
         <v>1972</v>
       </c>
-      <c r="F70" s="11"/>
+      <c r="F70" s="11" t="s">
+        <v>1972</v>
+      </c>
       <c r="G70" s="11">
         <v>15</v>
       </c>
@@ -65845,7 +65881,9 @@
       <c r="E71" s="11" t="s">
         <v>1974</v>
       </c>
-      <c r="F71" s="11"/>
+      <c r="F71" s="11" t="s">
+        <v>1974</v>
+      </c>
       <c r="G71" s="11">
         <v>15</v>
       </c>
@@ -65885,7 +65923,9 @@
       <c r="E72" s="11" t="s">
         <v>1976</v>
       </c>
-      <c r="F72" s="11"/>
+      <c r="F72" s="11" t="s">
+        <v>1976</v>
+      </c>
       <c r="G72" s="11">
         <v>15</v>
       </c>
@@ -65925,7 +65965,9 @@
       <c r="E73" s="11" t="s">
         <v>1978</v>
       </c>
-      <c r="F73" s="11"/>
+      <c r="F73" s="11" t="s">
+        <v>1978</v>
+      </c>
       <c r="G73" s="11">
         <v>15</v>
       </c>
@@ -65965,7 +66007,9 @@
       <c r="E74" s="11" t="s">
         <v>1980</v>
       </c>
-      <c r="F74" s="11"/>
+      <c r="F74" s="11" t="s">
+        <v>1980</v>
+      </c>
       <c r="G74" s="11">
         <v>15</v>
       </c>
@@ -66005,7 +66049,9 @@
       <c r="E75" s="11" t="s">
         <v>1982</v>
       </c>
-      <c r="F75" s="11"/>
+      <c r="F75" s="11" t="s">
+        <v>1982</v>
+      </c>
       <c r="G75" s="11">
         <v>15</v>
       </c>
@@ -66031,8 +66077,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/trunk/alert/בסיס נתונים התרעה.xlsx
+++ b/trunk/alert/בסיס נתונים התרעה.xlsx
@@ -6180,7 +6180,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6253,6 +6253,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -62781,8 +62785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56:F75"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F65536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -62791,8 +62795,8 @@
     <col min="2" max="2" width="8.75" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="27" customWidth="1"/>
     <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.625" bestFit="1" customWidth="1"/>
@@ -62859,10 +62863,10 @@
       <c r="D2" s="11">
         <v>8031021</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="15" t="s">
         <v>1791</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="15" t="s">
         <v>1792</v>
       </c>
       <c r="G2" s="11">
@@ -62903,10 +62907,10 @@
       <c r="D3" s="11">
         <v>8031022</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="15" t="s">
         <v>1794</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="15" t="s">
         <v>1795</v>
       </c>
       <c r="G3" s="11">
@@ -62947,10 +62951,10 @@
       <c r="D4" s="11">
         <v>8031023</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="15" t="s">
         <v>1797</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="15" t="s">
         <v>1798</v>
       </c>
       <c r="G4" s="11">
@@ -62991,10 +62995,10 @@
       <c r="D5" s="11">
         <v>8031024</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="15" t="s">
         <v>1800</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="15" t="s">
         <v>1801</v>
       </c>
       <c r="G5" s="11">
@@ -63035,10 +63039,10 @@
       <c r="D6" s="11">
         <v>8031025</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="15" t="s">
         <v>1803</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="15" t="s">
         <v>1804</v>
       </c>
       <c r="G6" s="11">
@@ -63079,10 +63083,10 @@
       <c r="D7" s="11">
         <v>8031026</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="15" t="s">
         <v>1806</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="15" t="s">
         <v>1807</v>
       </c>
       <c r="G7" s="11">
@@ -63123,10 +63127,10 @@
       <c r="D8" s="11">
         <v>8031027</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="15" t="s">
         <v>1809</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="15" t="s">
         <v>1810</v>
       </c>
       <c r="G8" s="11">
@@ -63167,10 +63171,10 @@
       <c r="D9" s="11">
         <v>8031028</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="15" t="s">
         <v>1812</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="15" t="s">
         <v>1813</v>
       </c>
       <c r="G9" s="11">
@@ -63211,10 +63215,10 @@
       <c r="D10" s="11">
         <v>8031065</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="15" t="s">
         <v>1815</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="15" t="s">
         <v>1816</v>
       </c>
       <c r="G10" s="11">
@@ -63255,10 +63259,10 @@
       <c r="D11" s="13">
         <v>8031103</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="26" t="s">
         <v>1818</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="26" t="s">
         <v>1819</v>
       </c>
       <c r="G11" s="13">
@@ -63299,10 +63303,10 @@
       <c r="D12" s="13">
         <v>8031104</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="26" t="s">
         <v>1821</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="26" t="s">
         <v>1822</v>
       </c>
       <c r="G12" s="13">
@@ -63343,10 +63347,10 @@
       <c r="D13" s="13">
         <v>8031105</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="26" t="s">
         <v>1824</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="26" t="s">
         <v>1825</v>
       </c>
       <c r="G13" s="13">
@@ -63387,10 +63391,10 @@
       <c r="D14" s="13">
         <v>8031106</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="26" t="s">
         <v>1827</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="26" t="s">
         <v>1828</v>
       </c>
       <c r="G14" s="13">
@@ -63431,10 +63435,10 @@
       <c r="D15" s="13">
         <v>8031107</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="26" t="s">
         <v>1830</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="26" t="s">
         <v>1831</v>
       </c>
       <c r="G15" s="13">
@@ -63475,10 +63479,10 @@
       <c r="D16" s="13">
         <v>8031108</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="26" t="s">
         <v>1833</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="26" t="s">
         <v>1834</v>
       </c>
       <c r="G16" s="13">
@@ -63519,10 +63523,10 @@
       <c r="D17" s="13">
         <v>8031109</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="26" t="s">
         <v>1836</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="26" t="s">
         <v>1837</v>
       </c>
       <c r="G17" s="13">
@@ -63563,10 +63567,10 @@
       <c r="D18" s="13">
         <v>8031110</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="26" t="s">
         <v>1839</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="26" t="s">
         <v>1840</v>
       </c>
       <c r="G18" s="13">
@@ -63607,10 +63611,10 @@
       <c r="D19" s="13">
         <v>8031111</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="26" t="s">
         <v>1842</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="26" t="s">
         <v>1843</v>
       </c>
       <c r="G19" s="13">
@@ -63651,10 +63655,10 @@
       <c r="D20" s="11">
         <v>8031029</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="15" t="s">
         <v>1845</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="15" t="s">
         <v>1846</v>
       </c>
       <c r="G20" s="11">
@@ -63695,10 +63699,10 @@
       <c r="D21" s="11">
         <v>8031030</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="15" t="s">
         <v>1848</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="15" t="s">
         <v>1849</v>
       </c>
       <c r="G21" s="11">
@@ -63739,10 +63743,10 @@
       <c r="D22" s="11">
         <v>8031031</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="15" t="s">
         <v>1851</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="15" t="s">
         <v>1852</v>
       </c>
       <c r="G22" s="11">
@@ -63783,10 +63787,10 @@
       <c r="D23" s="11">
         <v>8031032</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="15" t="s">
         <v>1854</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="15" t="s">
         <v>1855</v>
       </c>
       <c r="G23" s="11">
@@ -63827,10 +63831,10 @@
       <c r="D24" s="11">
         <v>8031067</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="15" t="s">
         <v>1857</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="15" t="s">
         <v>1858</v>
       </c>
       <c r="G24" s="11">
@@ -63871,10 +63875,10 @@
       <c r="D25" s="11">
         <v>8031073</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="15" t="s">
         <v>1860</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="15" t="s">
         <v>1861</v>
       </c>
       <c r="G25" s="11">
@@ -63916,10 +63920,10 @@
       <c r="D26" s="11">
         <v>8031063</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="15" t="s">
         <v>1863</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="15" t="s">
         <v>1864</v>
       </c>
       <c r="G26" s="11">
@@ -63960,10 +63964,10 @@
       <c r="D27" s="11">
         <v>8031066</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="15" t="s">
         <v>1866</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="15" t="s">
         <v>1867</v>
       </c>
       <c r="G27" s="11">
@@ -64004,10 +64008,10 @@
       <c r="D28" s="11">
         <v>8031033</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="15" t="s">
         <v>1869</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="15" t="s">
         <v>1870</v>
       </c>
       <c r="G28" s="11">
@@ -64048,10 +64052,10 @@
       <c r="D29" s="11">
         <v>8031034</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="15" t="s">
         <v>1872</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="15" t="s">
         <v>1873</v>
       </c>
       <c r="G29" s="11">
@@ -64092,10 +64096,10 @@
       <c r="D30" s="11">
         <v>8031075</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="15" t="s">
         <v>1875</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="15" t="s">
         <v>1876</v>
       </c>
       <c r="G30" s="11">
@@ -64136,10 +64140,10 @@
       <c r="D31" s="11">
         <v>8031072</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="15" t="s">
         <v>1878</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="15" t="s">
         <v>1879</v>
       </c>
       <c r="G31" s="11">
@@ -64181,10 +64185,10 @@
       <c r="D32" s="11">
         <v>8030063</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="15" t="s">
         <v>1881</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="15" t="s">
         <v>1882</v>
       </c>
       <c r="G32" s="11">
@@ -64226,10 +64230,10 @@
       <c r="D33" s="11">
         <v>8030064</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="15" t="s">
         <v>1281</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="15" t="s">
         <v>1282</v>
       </c>
       <c r="G33" s="11">
@@ -64270,10 +64274,10 @@
       <c r="D34" s="11">
         <v>8031069</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="15" t="s">
         <v>1885</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="15" t="s">
         <v>1886</v>
       </c>
       <c r="G34" s="11">
@@ -64314,10 +64318,10 @@
       <c r="D35" s="11">
         <v>8031071</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="15" t="s">
         <v>1888</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="15" t="s">
         <v>1889</v>
       </c>
       <c r="G35" s="11">
@@ -64358,10 +64362,10 @@
       <c r="D36" s="11">
         <v>8031074</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="15" t="s">
         <v>1891</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="15" t="s">
         <v>1892</v>
       </c>
       <c r="G36" s="11">
@@ -64402,10 +64406,10 @@
       <c r="D37" s="11">
         <v>8031070</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="15" t="s">
         <v>1894</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="15" t="s">
         <v>1895</v>
       </c>
       <c r="G37" s="11">
@@ -64447,10 +64451,10 @@
       <c r="D38" s="11">
         <v>8030033</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="15" t="s">
         <v>1897</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="15" t="s">
         <v>1898</v>
       </c>
       <c r="G38" s="11">
@@ -64491,10 +64495,10 @@
       <c r="D39" s="11">
         <v>8031064</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="15" t="s">
         <v>1900</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="15" t="s">
         <v>1901</v>
       </c>
       <c r="G39" s="11">
@@ -64536,10 +64540,10 @@
       <c r="D40" s="11">
         <v>8030067</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="15" t="s">
         <v>1903</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="15" t="s">
         <v>1904</v>
       </c>
       <c r="G40" s="11">
@@ -64580,10 +64584,10 @@
       <c r="D41" s="11">
         <v>8031068</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="15" t="s">
         <v>1906</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="15" t="s">
         <v>1907</v>
       </c>
       <c r="G41" s="11">
@@ -64624,10 +64628,10 @@
       <c r="D42" s="13">
         <v>8031092</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="26" t="s">
         <v>1909</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="26" t="s">
         <v>1910</v>
       </c>
       <c r="G42" s="13">
@@ -64669,10 +64673,10 @@
       <c r="D43" s="13">
         <v>8031093</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="26" t="s">
         <v>536</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="26" t="s">
         <v>1912</v>
       </c>
       <c r="G43" s="13">
@@ -64714,10 +64718,10 @@
       <c r="D44" s="13">
         <v>8031094</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="26" t="s">
         <v>1914</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="26" t="s">
         <v>1915</v>
       </c>
       <c r="G44" s="13">
@@ -64759,10 +64763,10 @@
       <c r="D45" s="13">
         <v>8031095</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="26" t="s">
         <v>1917</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="26" t="s">
         <v>1918</v>
       </c>
       <c r="G45" s="13">
@@ -64803,10 +64807,10 @@
       <c r="D46" s="13">
         <v>8031096</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="26" t="s">
         <v>1920</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="26" t="s">
         <v>1921</v>
       </c>
       <c r="G46" s="13">
@@ -64848,10 +64852,10 @@
       <c r="D47" s="13">
         <v>8031097</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="26" t="s">
         <v>1923</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="26" t="s">
         <v>1924</v>
       </c>
       <c r="G47" s="13">
@@ -64893,10 +64897,10 @@
       <c r="D48" s="13">
         <v>8031098</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="26" t="s">
         <v>1926</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="26" t="s">
         <v>1927</v>
       </c>
       <c r="G48" s="13">
@@ -64938,10 +64942,10 @@
       <c r="D49" s="13">
         <v>8031099</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="26" t="s">
         <v>1929</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="26" t="s">
         <v>1930</v>
       </c>
       <c r="G49" s="13">
@@ -64983,10 +64987,10 @@
       <c r="D50" s="13">
         <v>8031100</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="26" t="s">
         <v>1932</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="26" t="s">
         <v>1933</v>
       </c>
       <c r="G50" s="13">
@@ -65028,10 +65032,10 @@
       <c r="D51" s="13">
         <v>8031101</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="26" t="s">
         <v>1935</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="26" t="s">
         <v>1936</v>
       </c>
       <c r="G51" s="13">
@@ -65072,10 +65076,10 @@
       <c r="D52" s="13">
         <v>8031112</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="26" t="s">
         <v>1938</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="26" t="s">
         <v>1707</v>
       </c>
       <c r="G52" s="13">
@@ -65116,10 +65120,10 @@
       <c r="D53" s="13">
         <v>8031113</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="26" t="s">
         <v>1940</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="26" t="s">
         <v>1707</v>
       </c>
       <c r="G53" s="13">
@@ -65160,10 +65164,10 @@
       <c r="D54" s="13">
         <v>8031114</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="26" t="s">
         <v>1942</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="26" t="s">
         <v>1707</v>
       </c>
       <c r="G54" s="13">
@@ -65204,10 +65208,10 @@
       <c r="D55" s="13">
         <v>8031115</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="26" t="s">
         <v>1984</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="26" t="s">
         <v>1707</v>
       </c>
       <c r="G55" s="13">
@@ -65248,10 +65252,10 @@
       <c r="D56" s="11">
         <v>8031001</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="15" t="s">
         <v>1944</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="15" t="s">
         <v>1944</v>
       </c>
       <c r="G56" s="11">
@@ -65290,10 +65294,10 @@
       <c r="D57" s="11">
         <v>8031002</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="15" t="s">
         <v>1946</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="15" t="s">
         <v>1946</v>
       </c>
       <c r="G57" s="11">
@@ -65332,10 +65336,10 @@
       <c r="D58" s="11">
         <v>8031003</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="15" t="s">
         <v>1948</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="15" t="s">
         <v>1948</v>
       </c>
       <c r="G58" s="11">
@@ -65374,10 +65378,10 @@
       <c r="D59" s="11">
         <v>8031004</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="15" t="s">
         <v>1950</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="15" t="s">
         <v>1950</v>
       </c>
       <c r="G59" s="11">
@@ -65416,10 +65420,10 @@
       <c r="D60" s="11">
         <v>8031005</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="15" t="s">
         <v>1952</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="15" t="s">
         <v>1952</v>
       </c>
       <c r="G60" s="11">
@@ -65458,10 +65462,10 @@
       <c r="D61" s="11">
         <v>8031006</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="15" t="s">
         <v>1954</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="15" t="s">
         <v>1954</v>
       </c>
       <c r="G61" s="11">
@@ -65500,10 +65504,10 @@
       <c r="D62" s="11">
         <v>8031007</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="15" t="s">
         <v>1956</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="15" t="s">
         <v>1956</v>
       </c>
       <c r="G62" s="11">
@@ -65542,10 +65546,10 @@
       <c r="D63" s="11">
         <v>8031008</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="15" t="s">
         <v>1958</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="15" t="s">
         <v>1958</v>
       </c>
       <c r="G63" s="11">
@@ -65584,10 +65588,10 @@
       <c r="D64" s="11">
         <v>8031009</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="15" t="s">
         <v>1960</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="15" t="s">
         <v>1960</v>
       </c>
       <c r="G64" s="11">
@@ -65626,10 +65630,10 @@
       <c r="D65" s="11">
         <v>8031010</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="15" t="s">
         <v>1962</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="15" t="s">
         <v>1962</v>
       </c>
       <c r="G65" s="11">
@@ -65668,10 +65672,10 @@
       <c r="D66" s="11">
         <v>8031011</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="15" t="s">
         <v>1964</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="15" t="s">
         <v>1964</v>
       </c>
       <c r="G66" s="11">
@@ -65710,10 +65714,10 @@
       <c r="D67" s="11">
         <v>8031012</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="15" t="s">
         <v>1966</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="15" t="s">
         <v>1966</v>
       </c>
       <c r="G67" s="11">
@@ -65752,10 +65756,10 @@
       <c r="D68" s="11">
         <v>8031013</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="15" t="s">
         <v>1968</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="15" t="s">
         <v>1968</v>
       </c>
       <c r="G68" s="11">
@@ -65794,10 +65798,10 @@
       <c r="D69" s="11">
         <v>8031014</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="15" t="s">
         <v>1970</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="15" t="s">
         <v>1970</v>
       </c>
       <c r="G69" s="11">
@@ -65836,10 +65840,10 @@
       <c r="D70" s="11">
         <v>8031015</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="15" t="s">
         <v>1972</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="15" t="s">
         <v>1972</v>
       </c>
       <c r="G70" s="11">
@@ -65878,10 +65882,10 @@
       <c r="D71" s="11">
         <v>8031016</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="15" t="s">
         <v>1974</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="15" t="s">
         <v>1974</v>
       </c>
       <c r="G71" s="11">
@@ -65920,10 +65924,10 @@
       <c r="D72" s="11">
         <v>8031017</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="15" t="s">
         <v>1976</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="15" t="s">
         <v>1976</v>
       </c>
       <c r="G72" s="11">
@@ -65962,10 +65966,10 @@
       <c r="D73" s="11">
         <v>8031018</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="15" t="s">
         <v>1978</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="15" t="s">
         <v>1978</v>
       </c>
       <c r="G73" s="11">
@@ -66004,10 +66008,10 @@
       <c r="D74" s="11">
         <v>8031019</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="15" t="s">
         <v>1980</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="15" t="s">
         <v>1980</v>
       </c>
       <c r="G74" s="11">
@@ -66046,10 +66050,10 @@
       <c r="D75" s="11">
         <v>8031020</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="15" t="s">
         <v>1982</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="15" t="s">
         <v>1982</v>
       </c>
       <c r="G75" s="11">
